--- a/codigoFuente/datos/Lista.Nutrimental.xlsx
+++ b/codigoFuente/datos/Lista.Nutrimental.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesae\Documents\FLAVIO\UNIVERSIDAD\8VO SEMESTRE\SEMINARIO DE INTELIGENCIA ARTIFICIAL 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masar\Documents\UDG\Semestres\8° Semestre\Seminario de Inteligencia Artificial I\Actividades\Proyecto_Final\codigoFuente\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A415E-7861-477D-8784-4F52F51BF059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -56,66 +65,6 @@
     <t>Nopal</t>
   </si>
   <si>
-    <t>2.6 gr</t>
-  </si>
-  <si>
-    <t>623 UI</t>
-  </si>
-  <si>
-    <t>0.73 mg</t>
-  </si>
-  <si>
-    <t>47 mg</t>
-  </si>
-  <si>
-    <t>9.3 gr</t>
-  </si>
-  <si>
-    <t>2 UI</t>
-  </si>
-  <si>
-    <t>23 mg</t>
-  </si>
-  <si>
-    <t>0.21 mg</t>
-  </si>
-  <si>
-    <t>3.9 gr</t>
-  </si>
-  <si>
-    <t>756 UI</t>
-  </si>
-  <si>
-    <t>24 mg</t>
-  </si>
-  <si>
-    <t>2.14 mg</t>
-  </si>
-  <si>
-    <t>2.2 gr</t>
-  </si>
-  <si>
-    <t>3312 UI</t>
-  </si>
-  <si>
-    <t>35 mg</t>
-  </si>
-  <si>
-    <t>1.24 mg</t>
-  </si>
-  <si>
-    <t>3.3 gr</t>
-  </si>
-  <si>
-    <t>457 UI</t>
-  </si>
-  <si>
-    <t>164 mg</t>
-  </si>
-  <si>
-    <t>0.59 mg</t>
-  </si>
-  <si>
     <t>Fresa</t>
   </si>
   <si>
@@ -131,436 +80,127 @@
     <t>Mango</t>
   </si>
   <si>
-    <t>7.7 gr</t>
-  </si>
-  <si>
-    <t>12 UI</t>
-  </si>
-  <si>
-    <t>16 mg</t>
-  </si>
-  <si>
-    <t>0.41 mg</t>
-  </si>
-  <si>
     <t>Ciruela</t>
   </si>
   <si>
-    <t>11 gr</t>
-  </si>
-  <si>
-    <t>914 UI</t>
-  </si>
-  <si>
-    <t>7 mg</t>
-  </si>
-  <si>
-    <t>0.16 mg</t>
-  </si>
-  <si>
-    <t>13.8 gr</t>
-  </si>
-  <si>
-    <t>54 UI</t>
-  </si>
-  <si>
-    <t>6 mg</t>
-  </si>
-  <si>
-    <t>0.12 mg</t>
-  </si>
-  <si>
-    <t>14.7 gr</t>
-  </si>
-  <si>
-    <t>87 UI</t>
-  </si>
-  <si>
-    <t>34 mg</t>
-  </si>
-  <si>
-    <t>0.31 mg</t>
-  </si>
-  <si>
-    <t>15 gr</t>
-  </si>
-  <si>
-    <t>1082 UI</t>
-  </si>
-  <si>
-    <t>11 mg</t>
-  </si>
-  <si>
     <t>Atun</t>
   </si>
   <si>
-    <t>65 UI</t>
-  </si>
-  <si>
-    <t>4 mg</t>
-  </si>
-  <si>
-    <t>0.92 mg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camaron </t>
   </si>
   <si>
-    <t>64 mg</t>
-  </si>
-  <si>
-    <t>0.52 mg</t>
-  </si>
-  <si>
     <t>Tocino</t>
   </si>
   <si>
-    <t>0.8 gr</t>
-  </si>
-  <si>
-    <t>0.42 mg</t>
-  </si>
-  <si>
     <t>Carne de cerdo</t>
   </si>
   <si>
-    <t>37 UI</t>
-  </si>
-  <si>
-    <t>1 mg</t>
-  </si>
-  <si>
-    <t>0.13 mg</t>
-  </si>
-  <si>
     <t>Pavo</t>
   </si>
   <si>
-    <t>26 mg</t>
-  </si>
-  <si>
-    <t>1.79 mg</t>
-  </si>
-  <si>
     <t>Ala de Pollo</t>
   </si>
   <si>
-    <t>58 UI</t>
-  </si>
-  <si>
-    <t>28 mg</t>
-  </si>
-  <si>
-    <t>2.41 mg</t>
-  </si>
-  <si>
     <t>Alubias</t>
   </si>
   <si>
-    <t>21.6 gr</t>
-  </si>
-  <si>
-    <t>61 mg</t>
-  </si>
-  <si>
-    <t>1.99 mg</t>
-  </si>
-  <si>
     <t>Garbanzo</t>
   </si>
   <si>
-    <t>13.3 gr</t>
-  </si>
-  <si>
-    <t>150 UI</t>
-  </si>
-  <si>
-    <t>1.61 mg</t>
-  </si>
-  <si>
     <t>Frijoles</t>
   </si>
   <si>
-    <t>63 gr</t>
-  </si>
-  <si>
-    <t>67 UI</t>
-  </si>
-  <si>
-    <t>57 mg</t>
-  </si>
-  <si>
-    <t>4.31 mg</t>
-  </si>
-  <si>
     <t>Lentejas</t>
   </si>
   <si>
-    <t>10.7 gr</t>
-  </si>
-  <si>
-    <t>39 UI</t>
-  </si>
-  <si>
-    <t>6.51 mg</t>
-  </si>
-  <si>
     <t>Soya</t>
   </si>
   <si>
-    <t>9.9 gr</t>
-  </si>
-  <si>
-    <t>9 UI</t>
-  </si>
-  <si>
-    <t>102 mg</t>
-  </si>
-  <si>
-    <t>5.14 mg</t>
-  </si>
-  <si>
     <t>Carne Molida</t>
   </si>
   <si>
-    <t>2.42 mg</t>
-  </si>
-  <si>
     <t>Costilla de res</t>
   </si>
   <si>
-    <t>5 UI</t>
-  </si>
-  <si>
-    <t>2.37 mg</t>
-  </si>
-  <si>
     <t>Carne de lomo</t>
   </si>
   <si>
-    <t>22 UI</t>
-  </si>
-  <si>
-    <t>13 mg</t>
-  </si>
-  <si>
-    <t>3.24 mg</t>
-  </si>
-  <si>
     <t>Chuleta de res</t>
   </si>
   <si>
-    <t>6 UI</t>
-  </si>
-  <si>
-    <t>2.47 mg</t>
-  </si>
-  <si>
     <t>Molleja de pollo</t>
   </si>
   <si>
-    <t>64 UI</t>
-  </si>
-  <si>
-    <t>2.49 mg</t>
-  </si>
-  <si>
     <t>Crema</t>
   </si>
   <si>
-    <t>12.5 gr</t>
-  </si>
-  <si>
-    <t>685 UI</t>
-  </si>
-  <si>
-    <t>101 mg</t>
-  </si>
-  <si>
-    <t>0.05 mg</t>
-  </si>
-  <si>
     <t>Dulce de leche</t>
   </si>
   <si>
-    <t>55.4 gr</t>
-  </si>
-  <si>
-    <t>261 UI</t>
-  </si>
-  <si>
-    <t>251 mg</t>
-  </si>
-  <si>
-    <t>0.17 mg</t>
-  </si>
-  <si>
     <t>Huevo</t>
   </si>
   <si>
-    <t>1.5 gr</t>
-  </si>
-  <si>
-    <t>674 UI</t>
-  </si>
-  <si>
-    <t>3.85 mg</t>
-  </si>
-  <si>
     <t>Leche</t>
   </si>
   <si>
-    <t>4.7 gr</t>
-  </si>
-  <si>
-    <t>138 UI</t>
-  </si>
-  <si>
-    <t>119 mg</t>
-  </si>
-  <si>
     <t>Avena</t>
   </si>
   <si>
-    <t>67.7 gr</t>
-  </si>
-  <si>
-    <t>52 mg</t>
-  </si>
-  <si>
-    <t>4.25 mg</t>
-  </si>
-  <si>
     <t>Arroz inlfado</t>
   </si>
   <si>
-    <t>89.8 gr</t>
-  </si>
-  <si>
-    <t>31.7 mg</t>
-  </si>
-  <si>
     <t>Cebada</t>
   </si>
   <si>
-    <t>73.5 gr</t>
-  </si>
-  <si>
-    <t>33 mg</t>
-  </si>
-  <si>
-    <t>3.6 mg</t>
-  </si>
-  <si>
     <t>Spagueti</t>
   </si>
   <si>
-    <t>11.5 gr</t>
-  </si>
-  <si>
-    <t>264 UI</t>
-  </si>
-  <si>
-    <t>29 mg</t>
-  </si>
-  <si>
-    <t>1.03 mg</t>
-  </si>
-  <si>
     <t>Maiz</t>
   </si>
   <si>
-    <t>74.3 gr</t>
-  </si>
-  <si>
-    <t>214 UI</t>
-  </si>
-  <si>
-    <t>2.71 mg</t>
-  </si>
-  <si>
     <t>Trigo</t>
   </si>
   <si>
-    <t>69 gr</t>
-  </si>
-  <si>
-    <t>25 mg</t>
-  </si>
-  <si>
     <t>Aceite de maiz</t>
   </si>
   <si>
     <t>Mantequilla</t>
   </si>
   <si>
-    <t>0.1 gr</t>
-  </si>
-  <si>
-    <t>2599 UI</t>
-  </si>
-  <si>
-    <t>0.02 mg</t>
-  </si>
-  <si>
     <t>Mayonesa</t>
   </si>
   <si>
-    <t>70 UI</t>
-  </si>
-  <si>
     <t>Margarina</t>
   </si>
   <si>
-    <t>3571 UI</t>
-  </si>
-  <si>
     <t>Chorizo</t>
   </si>
   <si>
-    <t>1.9 gr</t>
-  </si>
-  <si>
-    <t>8 mg</t>
-  </si>
-  <si>
-    <t>1.59 mg</t>
-  </si>
-  <si>
     <t>Agua</t>
   </si>
   <si>
     <t>Naranjada</t>
   </si>
   <si>
-    <t>12.3 gr</t>
-  </si>
-  <si>
-    <t>8 UI</t>
-  </si>
-  <si>
-    <t>5 mg</t>
-  </si>
-  <si>
-    <t>0.04 mg</t>
-  </si>
-  <si>
     <t>Red Bull</t>
   </si>
   <si>
-    <t>210.9 gr</t>
-  </si>
-  <si>
     <t>Limonada</t>
   </si>
   <si>
-    <t>97.9 gr</t>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,6 +357,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,6 +409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +614,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -963,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -973,20 +647,32 @@
       <c r="C2" s="3">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>623</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -996,43 +682,43 @@
       <c r="C3" s="3">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>756</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1042,20 +728,20 @@
       <c r="C5" s="3">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>3312</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1065,163 +751,163 @@
       <c r="C6" s="3">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>457</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>164</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>914</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>61</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>1082</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>130</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
+      <c r="D12" s="3">
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>85</v>
@@ -1232,19 +918,19 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>64</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>407</v>
@@ -1252,45 +938,45 @@
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <v>898</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
+      <c r="D15" s="3">
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>208</v>
@@ -1301,11 +987,11 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
+      <c r="F16" s="3">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1313,22 +999,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
         <v>211</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
+      <c r="D17" s="3">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1336,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>155</v>
@@ -1344,14 +1030,14 @@
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>80</v>
+      <c r="E18" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,22 +1045,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
         <v>71</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
+      <c r="D19" s="3">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,22 +1068,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3">
         <v>378</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>89</v>
+      <c r="D20" s="3">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1405,22 +1091,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>352</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>93</v>
+      <c r="D21" s="3">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6.51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,22 +1114,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>173</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>98</v>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F22" s="3">
+        <v>102</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <v>295</v>
@@ -1462,11 +1148,11 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>100</v>
+      <c r="F23" s="3">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,22 +1160,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>240</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>102</v>
+      <c r="D24" s="3">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>103</v>
+      <c r="F24" s="3">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1497,22 +1183,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <v>211</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>105</v>
+      <c r="D25" s="3">
+        <v>22</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>107</v>
+      <c r="F25" s="3">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,22 +1206,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
         <v>234</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
+      <c r="D26" s="3">
+        <v>6</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>110</v>
+      <c r="F26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1543,22 +1229,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
         <v>94</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>112</v>
+      <c r="D27" s="3">
+        <v>64</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>113</v>
+      <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,22 +1252,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
         <v>257</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>118</v>
+      <c r="D28" s="3">
+        <v>685</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>101</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,22 +1275,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <v>315</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>123</v>
+      <c r="D29" s="3">
+        <v>261</v>
+      </c>
+      <c r="E29" s="3">
+        <v>55.4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>251</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,22 +1298,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3">
         <v>185</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>127</v>
+      <c r="D30" s="3">
+        <v>674</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.85</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,22 +1321,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
         <v>64</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>118</v>
+      <c r="D31" s="3">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F31" s="3">
+        <v>119</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1344,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3">
         <v>379</v>
@@ -1666,14 +1352,14 @@
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>135</v>
+      <c r="E32" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>52</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3">
         <v>402</v>
@@ -1689,14 +1375,14 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>138</v>
+      <c r="E33" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>31.7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1704,22 +1390,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
         <v>354</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>142</v>
+      <c r="D34" s="3">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3.6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1727,22 +1413,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3">
         <v>100</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>147</v>
+      <c r="D35" s="3">
+        <v>264</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.03</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,22 +1436,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3">
         <v>365</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>151</v>
+      <c r="D36" s="3">
+        <v>214</v>
+      </c>
+      <c r="E36" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.71</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1773,22 +1459,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3">
         <v>329</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>142</v>
+      <c r="D37" s="3">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3">
         <v>900</v>
@@ -1819,22 +1505,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3">
         <v>717</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>159</v>
+      <c r="D39" s="3">
+        <v>2599</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>24</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1842,13 +1528,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <v>361</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>161</v>
+      <c r="D40" s="3">
+        <v>70</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -1865,22 +1551,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
         <v>628</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>48</v>
+      <c r="D41" s="3">
+        <v>3571</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1888,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
         <v>455</v>
@@ -1896,14 +1582,14 @@
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
+      <c r="E42" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.59</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1919,14 +1605,14 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>58</v>
+      <c r="E43" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,22 +1620,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3">
         <v>49</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>173</v>
+      <c r="D44" s="3">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1957,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3">
         <v>45</v>
@@ -1965,14 +1651,14 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>159</v>
+      <c r="E45" s="3">
+        <v>210.9</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3">
         <v>380</v>
@@ -1988,20 +1674,18 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>123</v>
+      <c r="E46" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.17</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2010,9 +1694,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2021,9 +1703,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2032,9 +1712,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2043,9 +1721,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2150,25 +1826,2286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>623</v>
+      </c>
+      <c r="E2">
+        <v>2.6</v>
+      </c>
+      <c r="F2">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>756</v>
+      </c>
+      <c r="E4">
+        <v>3.9</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>3312</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>457</v>
+      </c>
+      <c r="E6">
+        <v>3.3</v>
+      </c>
+      <c r="F6">
+        <v>164</v>
+      </c>
+      <c r="G6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>7.7</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>914</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>13.8</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>14.7</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1082</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>407</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>898</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>208</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>211</v>
+      </c>
+      <c r="D17">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>3.3</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>155</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>21.6</v>
+      </c>
+      <c r="F18">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>13.3</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>378</v>
+      </c>
+      <c r="D20">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>352</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>10.7</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>173</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>9.9</v>
+      </c>
+      <c r="F22">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>295</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>240</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>234</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>257</v>
+      </c>
+      <c r="D28">
+        <v>685</v>
+      </c>
+      <c r="E28">
+        <v>12.5</v>
+      </c>
+      <c r="F28">
+        <v>101</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>315</v>
+      </c>
+      <c r="D29">
+        <v>261</v>
+      </c>
+      <c r="E29">
+        <v>55.4</v>
+      </c>
+      <c r="F29">
+        <v>251</v>
+      </c>
+      <c r="G29">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <v>674</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>138</v>
+      </c>
+      <c r="E31">
+        <v>4.7</v>
+      </c>
+      <c r="F31">
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>379</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>67.7</v>
+      </c>
+      <c r="F32">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>402</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>89.8</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>73.5</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>264</v>
+      </c>
+      <c r="E35">
+        <v>11.5</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>365</v>
+      </c>
+      <c r="D36">
+        <v>214</v>
+      </c>
+      <c r="E36">
+        <v>74.3</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>329</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>900</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>717</v>
+      </c>
+      <c r="D39">
+        <v>2599</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>361</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>628</v>
+      </c>
+      <c r="D41">
+        <v>3571</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>455</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1.9</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>12.3</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>210.9</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>380</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>97.9</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <f>(Hoja2!D2*0.3)/1000000</f>
+        <v>1.8690000000000002E-4</v>
+      </c>
+      <c r="E2">
+        <v>2.6</v>
+      </c>
+      <c r="F2">
+        <f>Hoja2!F2/1000</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G2">
+        <f>Hoja2!G2/1000</f>
+        <v>7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <f>(Hoja2!D3*0.3)/1000000</f>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="E3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F3">
+        <f>Hoja2!F3/1000</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G3">
+        <f>Hoja2!G3/1000</f>
+        <v>2.0999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>(Hoja2!D4*0.3)/1000000</f>
+        <v>2.2679999999999998E-4</v>
+      </c>
+      <c r="E4">
+        <v>3.9</v>
+      </c>
+      <c r="F4">
+        <f>Hoja2!F4/1000</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G4">
+        <f>Hoja2!G4/1000</f>
+        <v>2.14E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>(Hoja2!D5*0.3)/1000000</f>
+        <v>9.9359999999999987E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5">
+        <f>Hoja2!F5/1000</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <f>Hoja2!G5/1000</f>
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f>(Hoja2!D6*0.3)/1000000</f>
+        <v>1.371E-4</v>
+      </c>
+      <c r="E6">
+        <v>3.3</v>
+      </c>
+      <c r="F6">
+        <f>Hoja2!F6/1000</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G6">
+        <f>Hoja2!G6/1000</f>
+        <v>5.8999999999999992E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <f>(Hoja2!D7*0.3)/1000000</f>
+        <v>3.5999999999999998E-6</v>
+      </c>
+      <c r="E7">
+        <v>7.7</v>
+      </c>
+      <c r="F7">
+        <f>Hoja2!F7/1000</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G7">
+        <f>Hoja2!G7/1000</f>
+        <v>4.0999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <f>(Hoja2!D8*0.3)/1000000</f>
+        <v>2.742E-4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f>Hoja2!F8/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <f>Hoja2!G8/1000</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <f>(Hoja2!D9*0.3)/1000000</f>
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="E9">
+        <v>13.8</v>
+      </c>
+      <c r="F9">
+        <f>Hoja2!F9/1000</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f>Hoja2!G9/1000</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <f>(Hoja2!D10*0.3)/1000000</f>
+        <v>2.6099999999999997E-5</v>
+      </c>
+      <c r="E10">
+        <v>14.7</v>
+      </c>
+      <c r="F10">
+        <f>Hoja2!F10/1000</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <f>Hoja2!G10/1000</f>
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <f>(Hoja2!D11*0.3)/1000000</f>
+        <v>3.2459999999999998E-4</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f>Hoja2!F11/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <f>Hoja2!G11/1000</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <f>(Hoja2!D12*0.3)/1000000</f>
+        <v>1.95E-5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>Hoja2!F12/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <f>Hoja2!G12/1000</f>
+        <v>9.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <f>(Hoja2!D13*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Hoja2!F13/1000</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <f>Hoja2!G13/1000</f>
+        <v>5.2000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>407</v>
+      </c>
+      <c r="D14">
+        <f>(Hoja2!D14*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14">
+        <f>Hoja2!F14/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <f>Hoja2!G14/1000</f>
+        <v>4.1999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>898</v>
+      </c>
+      <c r="D15">
+        <f>(Hoja2!D15*0.3)/1000000</f>
+        <v>1.11E-5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Hoja2!F15/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G15">
+        <f>Hoja2!G15/1000</f>
+        <v>1.3000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>208</v>
+      </c>
+      <c r="D16">
+        <f>(Hoja2!D16*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>Hoja2!F16/1000</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <f>Hoja2!G16/1000</f>
+        <v>1.7900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>211</v>
+      </c>
+      <c r="D17">
+        <f>(Hoja2!D17*0.3)/1000000</f>
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="E17">
+        <v>3.3</v>
+      </c>
+      <c r="F17">
+        <f>Hoja2!F17/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <f>Hoja2!G17/1000</f>
+        <v>2.4100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>155</v>
+      </c>
+      <c r="D18">
+        <f>(Hoja2!D18*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>21.6</v>
+      </c>
+      <c r="F18">
+        <f>Hoja2!F18/1000</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <f>Hoja2!G18/1000</f>
+        <v>1.99E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <f>(Hoja2!D19*0.3)/1000000</f>
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="E19">
+        <v>13.3</v>
+      </c>
+      <c r="F19">
+        <f>Hoja2!F19/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <f>Hoja2!G19/1000</f>
+        <v>1.6100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>378</v>
+      </c>
+      <c r="D20">
+        <f>(Hoja2!D20*0.3)/1000000</f>
+        <v>2.0099999999999997E-5</v>
+      </c>
+      <c r="E20">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <f>Hoja2!F20/1000</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G20">
+        <f>Hoja2!G20/1000</f>
+        <v>4.3099999999999996E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>352</v>
+      </c>
+      <c r="D21">
+        <f>(Hoja2!D21*0.3)/1000000</f>
+        <v>1.17E-5</v>
+      </c>
+      <c r="E21">
+        <v>10.7</v>
+      </c>
+      <c r="F21">
+        <f>Hoja2!F21/1000</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G21">
+        <f>Hoja2!G21/1000</f>
+        <v>6.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>173</v>
+      </c>
+      <c r="D22">
+        <f>(Hoja2!D22*0.3)/1000000</f>
+        <v>2.6999999999999996E-6</v>
+      </c>
+      <c r="E22">
+        <v>9.9</v>
+      </c>
+      <c r="F22">
+        <f>Hoja2!F22/1000</f>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G22">
+        <f>Hoja2!G22/1000</f>
+        <v>5.1399999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>295</v>
+      </c>
+      <c r="D23">
+        <f>(Hoja2!D23*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>Hoja2!F23/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <f>Hoja2!G23/1000</f>
+        <v>2.4199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>240</v>
+      </c>
+      <c r="D24">
+        <f>(Hoja2!D24*0.3)/1000000</f>
+        <v>1.5E-6</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>Hoja2!F24/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <f>Hoja2!G24/1000</f>
+        <v>2.3700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <f>(Hoja2!D25*0.3)/1000000</f>
+        <v>6.5999999999999995E-6</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>Hoja2!F25/1000</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <f>Hoja2!G25/1000</f>
+        <v>3.2400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>234</v>
+      </c>
+      <c r="D26">
+        <f>(Hoja2!D26*0.3)/1000000</f>
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>Hoja2!F26/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G26">
+        <f>Hoja2!G26/1000</f>
+        <v>2.4700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <f>(Hoja2!D27*0.3)/1000000</f>
+        <v>1.9199999999999999E-5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>Hoja2!F27/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <f>Hoja2!G27/1000</f>
+        <v>2.49E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>257</v>
+      </c>
+      <c r="D28">
+        <f>(Hoja2!D28*0.3)/1000000</f>
+        <v>2.0550000000000001E-4</v>
+      </c>
+      <c r="E28">
+        <v>12.5</v>
+      </c>
+      <c r="F28">
+        <f>Hoja2!F28/1000</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G28">
+        <f>Hoja2!G28/1000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>315</v>
+      </c>
+      <c r="D29">
+        <f>(Hoja2!D29*0.3)/1000000</f>
+        <v>7.8299999999999992E-5</v>
+      </c>
+      <c r="E29">
+        <v>55.4</v>
+      </c>
+      <c r="F29">
+        <f>Hoja2!F29/1000</f>
+        <v>0.251</v>
+      </c>
+      <c r="G29">
+        <f>Hoja2!G29/1000</f>
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <f>(Hoja2!D30*0.3)/1000000</f>
+        <v>2.0219999999999998E-4</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <f>Hoja2!F30/1000</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G30">
+        <f>Hoja2!G30/1000</f>
+        <v>3.8500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <f>(Hoja2!D31*0.3)/1000000</f>
+        <v>4.1399999999999997E-5</v>
+      </c>
+      <c r="E31">
+        <v>4.7</v>
+      </c>
+      <c r="F31">
+        <f>Hoja2!F31/1000</f>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G31">
+        <f>Hoja2!G31/1000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>379</v>
+      </c>
+      <c r="D32">
+        <f>(Hoja2!D32*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>67.7</v>
+      </c>
+      <c r="F32">
+        <f>Hoja2!F32/1000</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G32">
+        <f>Hoja2!G32/1000</f>
+        <v>4.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>402</v>
+      </c>
+      <c r="D33">
+        <f>(Hoja2!D33*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>89.8</v>
+      </c>
+      <c r="F33">
+        <f>Hoja2!F33/1000</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G33">
+        <f>Hoja2!G33/1000</f>
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <f>(Hoja2!D34*0.3)/1000000</f>
+        <v>6.5999999999999995E-6</v>
+      </c>
+      <c r="E34">
+        <v>73.5</v>
+      </c>
+      <c r="F34">
+        <f>Hoja2!F34/1000</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G34">
+        <f>Hoja2!G34/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f>(Hoja2!D35*0.3)/1000000</f>
+        <v>7.9200000000000001E-5</v>
+      </c>
+      <c r="E35">
+        <v>11.5</v>
+      </c>
+      <c r="F35">
+        <f>Hoja2!F35/1000</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G35">
+        <f>Hoja2!G35/1000</f>
+        <v>1.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>365</v>
+      </c>
+      <c r="D36">
+        <f>(Hoja2!D36*0.3)/1000000</f>
+        <v>6.4200000000000002E-5</v>
+      </c>
+      <c r="E36">
+        <v>74.3</v>
+      </c>
+      <c r="F36">
+        <f>Hoja2!F36/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G36">
+        <f>Hoja2!G36/1000</f>
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>329</v>
+      </c>
+      <c r="D37">
+        <f>(Hoja2!D37*0.3)/1000000</f>
+        <v>2.6999999999999996E-6</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <f>Hoja2!F37/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G37">
+        <f>Hoja2!G37/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>900</v>
+      </c>
+      <c r="D38">
+        <f>(Hoja2!D38*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>Hoja2!F38/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>Hoja2!G38/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>717</v>
+      </c>
+      <c r="D39">
+        <f>(Hoja2!D39*0.3)/1000000</f>
+        <v>7.7969999999999992E-4</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <f>Hoja2!F39/1000</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G39">
+        <f>Hoja2!G39/1000</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>361</v>
+      </c>
+      <c r="D40">
+        <f>(Hoja2!D40*0.3)/1000000</f>
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>Hoja2!F40/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Hoja2!G40/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>628</v>
+      </c>
+      <c r="D41">
+        <f>(Hoja2!D41*0.3)/1000000</f>
+        <v>1.0712999999999999E-3</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <f>Hoja2!F41/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <f>Hoja2!G41/1000</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>455</v>
+      </c>
+      <c r="D42">
+        <f>(Hoja2!D42*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1.9</v>
+      </c>
+      <c r="F42">
+        <f>Hoja2!F42/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G42">
+        <f>Hoja2!G42/1000</f>
+        <v>1.5900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>(Hoja2!D43*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <f>Hoja2!F43/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G43">
+        <f>Hoja2!G43/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <f>(Hoja2!D44*0.3)/1000000</f>
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="E44">
+        <v>12.3</v>
+      </c>
+      <c r="F44">
+        <f>Hoja2!F44/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <f>Hoja2!G44/1000</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <f>(Hoja2!D45*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>210.9</v>
+      </c>
+      <c r="F45">
+        <f>Hoja2!F45/1000</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G45">
+        <f>Hoja2!G45/1000</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>380</v>
+      </c>
+      <c r="D46">
+        <f>(Hoja2!D46*0.3)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>97.9</v>
+      </c>
+      <c r="F46">
+        <f>Hoja2!F46/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G46">
+        <f>Hoja2!G46/1000</f>
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>